--- a/GBDS NOVEMBER FILES 2025/SCRR CALCULATOR - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SCRR CALCULATOR - NOVEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5A3356-E3B7-4E31-89C9-DDC7DBF08BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE7AF93-C659-484E-85FE-04CBEBF3E675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(November 2025)" sheetId="814" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3668" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="150">
   <si>
     <t>GUILLERMO BEVERAGE DISTRIBUTION SERVICES</t>
   </si>
@@ -609,6 +609,39 @@
       <t xml:space="preserve"> / OVER</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SHORT / </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OVER</t>
+    </r>
+  </si>
+  <si>
+    <t>BDO</t>
+  </si>
+  <si>
+    <t>142807</t>
+  </si>
+  <si>
+    <t>477765</t>
+  </si>
+  <si>
+    <t>BALWARTE</t>
+  </si>
+  <si>
+    <t>PNB</t>
+  </si>
+  <si>
+    <t>BANK TRANSFER</t>
+  </si>
 </sst>
 </file>
 
@@ -620,7 +653,7 @@
     <numFmt numFmtId="164" formatCode="[$-3409]mmmm\ dd\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* \(#,##0.00\)_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +805,20 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1476,7 +1523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2047,6 +2094,9 @@
     <xf numFmtId="4" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2065,10 +2115,10 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -7058,13 +7108,13 @@
       <c r="F51" s="216" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -7086,10 +7136,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -7832,9 +7882,9 @@
       <c r="G19" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
       <c r="L19" s="6">
         <f>R35</f>
         <v>1102</v>
@@ -8761,13 +8811,13 @@
       <c r="F51" s="216" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -8789,10 +8839,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -10453,13 +10503,13 @@
       <c r="F51" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -10481,10 +10531,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -13781,13 +13831,13 @@
       <c r="F51" s="216" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -13809,10 +13859,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -14555,9 +14605,9 @@
       <c r="G19" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
       <c r="L19" s="6">
         <f>R35</f>
         <v>1102</v>
@@ -15484,13 +15534,13 @@
       <c r="F51" s="216" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -15512,10 +15562,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -17176,13 +17226,13 @@
       <c r="F51" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -17204,10 +17254,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -20504,13 +20554,13 @@
       <c r="F51" s="216" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -20532,10 +20582,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -22899,9 +22949,9 @@
       <c r="G19" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
       <c r="L19" s="6">
         <f>R35</f>
         <v>1102</v>
@@ -23828,13 +23878,13 @@
       <c r="F51" s="216" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -23856,10 +23906,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -25520,13 +25570,13 @@
       <c r="F51" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -25548,10 +25598,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -28848,13 +28898,13 @@
       <c r="F51" s="216" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -28876,10 +28926,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -29622,9 +29672,9 @@
       <c r="G19" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
       <c r="L19" s="6">
         <f>R35</f>
         <v>1102</v>
@@ -30551,13 +30601,13 @@
       <c r="F51" s="216" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -30579,10 +30629,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -32243,13 +32293,13 @@
       <c r="F51" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -32271,10 +32321,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -35571,13 +35621,13 @@
       <c r="F51" s="216" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -35599,10 +35649,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -35792,7 +35842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43308B07-FE9D-4D68-8214-92E1CE75A929}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -36345,9 +36395,9 @@
       <c r="G19" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
       <c r="L19" s="6">
         <f>R35</f>
         <v>1102</v>
@@ -37274,13 +37324,13 @@
       <c r="F51" s="216" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -37302,10 +37352,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -38966,13 +39016,13 @@
       <c r="F51" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -38994,10 +39044,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -39300,10 +39350,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="89">
+        <v>189</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>139293</v>
       </c>
       <c r="F6" s="112" t="s">
         <v>16</v>
@@ -39336,10 +39388,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="89">
+        <v>10</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7250</v>
       </c>
       <c r="F7" s="113"/>
       <c r="G7" s="117"/>
@@ -39360,10 +39414,12 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="89"/>
+      <c r="C8" s="89">
+        <v>1</v>
+      </c>
       <c r="D8" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="F8" s="120" t="s">
         <v>21</v>
@@ -39388,10 +39444,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="89"/>
+      <c r="C9" s="89">
+        <v>21</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14847</v>
       </c>
       <c r="F9" s="113"/>
       <c r="G9" s="125"/>
@@ -39440,10 +39498,12 @@
       <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="89">
+        <v>1</v>
+      </c>
       <c r="D11" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="F11" s="113"/>
       <c r="G11" s="125"/>
@@ -39472,10 +39532,13 @@
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="89"/>
+      <c r="C12" s="89">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
       <c r="D12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1904</v>
       </c>
       <c r="F12" s="131" t="s">
         <v>33</v>
@@ -39506,10 +39569,13 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="89"/>
+      <c r="C13" s="89">
+        <f>7</f>
+        <v>7</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2149</v>
       </c>
       <c r="F13" s="134" t="s">
         <v>36</v>
@@ -39517,7 +39583,7 @@
       <c r="G13" s="135"/>
       <c r="H13" s="136">
         <f>D29</f>
-        <v>0</v>
+        <v>176285</v>
       </c>
       <c r="I13" s="137"/>
       <c r="J13" s="138"/>
@@ -39540,10 +39606,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="89">
+        <v>18</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="F14" s="139" t="s">
         <v>39</v>
@@ -39551,7 +39619,7 @@
       <c r="G14" s="140"/>
       <c r="H14" s="141">
         <f>D54</f>
-        <v>0</v>
+        <v>26221.5</v>
       </c>
       <c r="I14" s="142"/>
       <c r="J14" s="143"/>
@@ -39589,7 +39657,7 @@
       <c r="G15" s="135"/>
       <c r="H15" s="145">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>150063.5</v>
       </c>
       <c r="I15" s="146"/>
       <c r="J15" s="147"/>
@@ -39688,10 +39756,12 @@
       <c r="B18" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="89"/>
+      <c r="C18" s="89">
+        <v>1</v>
+      </c>
       <c r="D18" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="66" t="s">
@@ -39722,10 +39792,13 @@
       <c r="B19" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="89">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
       <c r="D19" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3306</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="68" t="s">
@@ -39748,10 +39821,12 @@
       <c r="B20" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="89"/>
+      <c r="C20" s="89">
+        <v>1</v>
+      </c>
       <c r="D20" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="70" t="s">
@@ -39778,10 +39853,13 @@
       <c r="B21" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="89"/>
+      <c r="C21" s="89">
+        <f>2+2</f>
+        <v>4</v>
+      </c>
       <c r="D21" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="F21" s="69" t="s">
         <v>99</v>
@@ -39951,9 +40029,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="75"/>
+      <c r="F26" s="75" t="s">
+        <v>147</v>
+      </c>
       <c r="G26" s="65"/>
-      <c r="H26" s="173"/>
+      <c r="H26" s="173">
+        <v>87612</v>
+      </c>
       <c r="I26" s="173"/>
       <c r="J26" s="173"/>
       <c r="L26" s="7">
@@ -40009,10 +40091,12 @@
       <c r="B28" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="89"/>
+      <c r="C28" s="89">
+        <v>1</v>
+      </c>
       <c r="D28" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="F28" s="87"/>
       <c r="G28" s="61"/>
@@ -40044,7 +40128,7 @@
       <c r="C29" s="151"/>
       <c r="D29" s="155">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>176285</v>
       </c>
       <c r="F29" s="157" t="s">
         <v>55</v>
@@ -40052,7 +40136,7 @@
       <c r="G29" s="158"/>
       <c r="H29" s="161">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27+H28</f>
-        <v>0</v>
+        <v>237675.5</v>
       </c>
       <c r="I29" s="162"/>
       <c r="J29" s="163"/>
@@ -40183,10 +40267,12 @@
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="40"/>
+      <c r="G34" s="40">
+        <v>120</v>
+      </c>
       <c r="H34" s="189">
         <f t="shared" ref="H34:H39" si="2">F34*G34</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I34" s="190"/>
       <c r="J34" s="191"/>
@@ -40217,10 +40303,12 @@
       <c r="F35" s="58">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>48</v>
+      </c>
       <c r="H35" s="189">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="I35" s="190"/>
       <c r="J35" s="191"/>
@@ -40241,18 +40329,22 @@
       <c r="B36" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="10">
+        <v>28</v>
+      </c>
       <c r="D36" s="12">
         <f>C36*1.5</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F36" s="12">
         <v>200</v>
       </c>
-      <c r="G36" s="37"/>
+      <c r="G36" s="37">
+        <v>1</v>
+      </c>
       <c r="H36" s="189">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I36" s="190"/>
       <c r="J36" s="191"/>
@@ -40277,18 +40369,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>209</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>23199</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>35</v>
+      </c>
       <c r="H37" s="189">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I37" s="190"/>
       <c r="J37" s="191"/>
@@ -40311,18 +40407,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>6</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>5</v>
+      </c>
       <c r="H38" s="189">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I38" s="190"/>
       <c r="J38" s="191"/>
@@ -40345,10 +40445,12 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>2</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
@@ -40379,10 +40481,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="63">
+        <v>11</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>1221</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -40410,10 +40514,12 @@
       <c r="B41" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
       <c r="D41" s="12">
         <f>C41*84</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F41" s="12">
         <v>5</v>
@@ -40442,15 +40548,19 @@
       <c r="B42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>6</v>
+      </c>
       <c r="D42" s="12">
         <f>C42*2.25</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="189"/>
+      <c r="G42" s="189">
+        <v>2143</v>
+      </c>
       <c r="H42" s="190"/>
       <c r="I42" s="190"/>
       <c r="J42" s="191"/>
@@ -40501,14 +40611,22 @@
       <c r="B44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
       <c r="D44" s="12">
         <f>C44*120</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="173"/>
+        <v>240</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="236" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" s="173">
+        <v>87612</v>
+      </c>
       <c r="I44" s="173"/>
       <c r="J44" s="173"/>
       <c r="K44" s="21"/>
@@ -40532,10 +40650,12 @@
       <c r="B45" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="33">
+        <v>3</v>
+      </c>
       <c r="D45" s="12">
         <f>C45*84</f>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="62"/>
@@ -40589,10 +40709,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>8</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
@@ -40627,7 +40749,7 @@
       </c>
       <c r="G49" s="161">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>237705</v>
       </c>
       <c r="H49" s="162"/>
       <c r="I49" s="162"/>
@@ -40651,10 +40773,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>22</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F50" s="215"/>
       <c r="G50" s="164"/>
@@ -40671,15 +40795,15 @@
       <c r="C51" s="10"/>
       <c r="D51" s="31"/>
       <c r="F51" s="216" t="s">
-        <v>131</v>
-      </c>
-      <c r="G51" s="228">
+        <v>143</v>
+      </c>
+      <c r="G51" s="218">
         <f>G49-H29</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+        <v>29.5</v>
+      </c>
+      <c r="H51" s="219"/>
+      <c r="I51" s="219"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -40701,10 +40825,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="221"/>
+      <c r="H52" s="222"/>
+      <c r="I52" s="222"/>
+      <c r="J52" s="223"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -40746,7 +40870,7 @@
       <c r="C54" s="203"/>
       <c r="D54" s="206">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>26221.5</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -41016,10 +41140,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>329</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>242473</v>
       </c>
       <c r="F6" s="112" t="s">
         <v>16</v>
@@ -41104,10 +41230,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>13</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9191</v>
       </c>
       <c r="F9" s="113"/>
       <c r="G9" s="125"/>
@@ -41222,10 +41350,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>10</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3070</v>
       </c>
       <c r="F13" s="134" t="s">
         <v>36</v>
@@ -41233,7 +41363,7 @@
       <c r="G13" s="135"/>
       <c r="H13" s="136">
         <f>D29</f>
-        <v>0</v>
+        <v>254855</v>
       </c>
       <c r="I13" s="137"/>
       <c r="J13" s="138"/>
@@ -41256,10 +41386,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>11</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F14" s="139" t="s">
         <v>39</v>
@@ -41267,7 +41399,7 @@
       <c r="G14" s="140"/>
       <c r="H14" s="141">
         <f>D54</f>
-        <v>0</v>
+        <v>38556</v>
       </c>
       <c r="I14" s="142"/>
       <c r="J14" s="143"/>
@@ -41305,7 +41437,7 @@
       <c r="G15" s="135"/>
       <c r="H15" s="145">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>216299</v>
       </c>
       <c r="I15" s="146"/>
       <c r="J15" s="147"/>
@@ -41343,7 +41475,10 @@
       <c r="G16" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="148"/>
+      <c r="H16" s="148">
+        <f>1998+1071</f>
+        <v>3069</v>
+      </c>
       <c r="I16" s="148"/>
       <c r="J16" s="148"/>
       <c r="L16" s="6">
@@ -41447,9 +41582,9 @@
       <c r="G19" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
       <c r="L19" s="6">
         <f>R35</f>
         <v>1102</v>
@@ -41763,7 +41898,7 @@
       <c r="C29" s="151"/>
       <c r="D29" s="155">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>254855</v>
       </c>
       <c r="F29" s="157" t="s">
         <v>55</v>
@@ -41771,7 +41906,7 @@
       <c r="G29" s="158"/>
       <c r="H29" s="161">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>0</v>
+        <v>213230</v>
       </c>
       <c r="I29" s="162"/>
       <c r="J29" s="163"/>
@@ -41902,10 +42037,12 @@
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="74"/>
+      <c r="G34" s="74">
+        <v>73</v>
+      </c>
       <c r="H34" s="189">
         <f>F34*G34</f>
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="I34" s="190"/>
       <c r="J34" s="191"/>
@@ -41936,10 +42073,12 @@
       <c r="F35" s="58">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>9</v>
+      </c>
       <c r="H35" s="189">
         <f t="shared" ref="H35:H39" si="2">F35*G35</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I35" s="190"/>
       <c r="J35" s="191"/>
@@ -41968,10 +42107,12 @@
       <c r="F36" s="12">
         <v>200</v>
       </c>
-      <c r="G36" s="37"/>
+      <c r="G36" s="37">
+        <v>2</v>
+      </c>
       <c r="H36" s="189">
         <f>F36*G36</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I36" s="190"/>
       <c r="J36" s="191"/>
@@ -41996,10 +42137,12 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>341</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>37851</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
@@ -42030,10 +42173,12 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>3</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
@@ -42064,10 +42209,12 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>4</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
@@ -42169,7 +42316,9 @@
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="189"/>
+      <c r="G42" s="189">
+        <v>105</v>
+      </c>
       <c r="H42" s="190"/>
       <c r="I42" s="190"/>
       <c r="J42" s="191"/>
@@ -42220,9 +42369,15 @@
         <f>C44*120</f>
         <v>0</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="173"/>
+      <c r="F44" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="173">
+        <v>134760</v>
+      </c>
       <c r="I44" s="173"/>
       <c r="J44" s="173"/>
       <c r="K44" s="21"/>
@@ -42320,17 +42475,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>10</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="F49" s="214" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="161">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>212765</v>
       </c>
       <c r="H49" s="162"/>
       <c r="I49" s="162"/>
@@ -42354,10 +42511,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>10</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F50" s="215"/>
       <c r="G50" s="164"/>
@@ -42376,13 +42535,13 @@
       <c r="F51" s="216" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+        <v>-465</v>
+      </c>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -42404,10 +42563,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -42449,7 +42608,7 @@
       <c r="C54" s="203"/>
       <c r="D54" s="206">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>38556</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -42588,7 +42747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2C5A33-CB43-46F6-B08E-4260FA9D7C38}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -42710,10 +42869,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>264</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>194568</v>
       </c>
       <c r="F6" s="112" t="s">
         <v>16</v>
@@ -42746,10 +42907,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3625</v>
       </c>
       <c r="F7" s="113"/>
       <c r="G7" s="117"/>
@@ -42798,10 +42961,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>44</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31108</v>
       </c>
       <c r="F9" s="113"/>
       <c r="G9" s="125"/>
@@ -42822,10 +42987,12 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
       <c r="D10" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>972</v>
       </c>
       <c r="F10" s="112" t="s">
         <v>26</v>
@@ -42850,10 +43017,12 @@
       <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
       <c r="D11" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="F11" s="113"/>
       <c r="G11" s="125"/>
@@ -42882,10 +43051,13 @@
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="D12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="F12" s="131" t="s">
         <v>33</v>
@@ -42916,10 +43088,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1535</v>
       </c>
       <c r="F13" s="134" t="s">
         <v>36</v>
@@ -42927,7 +43101,7 @@
       <c r="G13" s="135"/>
       <c r="H13" s="136">
         <f>D29</f>
-        <v>0</v>
+        <v>237953</v>
       </c>
       <c r="I13" s="137"/>
       <c r="J13" s="138"/>
@@ -42950,10 +43124,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>13</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="F14" s="139" t="s">
         <v>39</v>
@@ -42961,7 +43137,7 @@
       <c r="G14" s="140"/>
       <c r="H14" s="141">
         <f>D54</f>
-        <v>0</v>
+        <v>37326.75</v>
       </c>
       <c r="I14" s="142"/>
       <c r="J14" s="143"/>
@@ -42999,7 +43175,7 @@
       <c r="G15" s="135"/>
       <c r="H15" s="145">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>200626.25</v>
       </c>
       <c r="I15" s="146"/>
       <c r="J15" s="147"/>
@@ -43037,7 +43213,10 @@
       <c r="G16" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="148"/>
+      <c r="H16" s="148">
+        <f>840+990</f>
+        <v>1830</v>
+      </c>
       <c r="I16" s="148"/>
       <c r="J16" s="148"/>
       <c r="L16" s="6">
@@ -43420,10 +43599,12 @@
       <c r="B28" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="10">
+        <v>5</v>
+      </c>
       <c r="D28" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="F28" s="87"/>
       <c r="G28" s="61"/>
@@ -43455,7 +43636,7 @@
       <c r="C29" s="151"/>
       <c r="D29" s="155">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>237953</v>
       </c>
       <c r="F29" s="157" t="s">
         <v>55</v>
@@ -43463,7 +43644,7 @@
       <c r="G29" s="158"/>
       <c r="H29" s="161">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>0</v>
+        <v>198796.25</v>
       </c>
       <c r="I29" s="162"/>
       <c r="J29" s="163"/>
@@ -43586,18 +43767,22 @@
       <c r="B34" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="51">
+        <v>2</v>
+      </c>
       <c r="D34" s="30">
         <f>C34*120</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="74"/>
+      <c r="G34" s="74">
+        <v>103</v>
+      </c>
       <c r="H34" s="189">
         <f>F34*G34</f>
-        <v>0</v>
+        <v>103000</v>
       </c>
       <c r="I34" s="190"/>
       <c r="J34" s="191"/>
@@ -43628,10 +43813,12 @@
       <c r="F35" s="58">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>20</v>
+      </c>
       <c r="H35" s="189">
         <f>F35*G35</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I35" s="190"/>
       <c r="J35" s="191"/>
@@ -43688,18 +43875,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>322</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>35742</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>7</v>
+      </c>
       <c r="H37" s="189">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I37" s="190"/>
       <c r="J37" s="191"/>
@@ -43722,18 +43913,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>4</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>3</v>
+      </c>
       <c r="H38" s="189">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I38" s="190"/>
       <c r="J38" s="191"/>
@@ -43790,10 +43985,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="63">
+        <v>3</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -43821,10 +44018,12 @@
       <c r="B41" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
       <c r="D41" s="12">
         <f>C41*84</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F41" s="12">
         <v>5</v>
@@ -43853,15 +44052,19 @@
       <c r="B42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>11</v>
+      </c>
       <c r="D42" s="12">
         <f>C42*2.25</f>
-        <v>0</v>
+        <v>24.75</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="189"/>
+      <c r="G42" s="189">
+        <v>521</v>
+      </c>
       <c r="H42" s="190"/>
       <c r="I42" s="190"/>
       <c r="J42" s="191"/>
@@ -43907,14 +44110,22 @@
       <c r="B44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
       <c r="D44" s="12">
         <f>C44*120</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="173"/>
+        <v>240</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="173">
+        <v>84520</v>
+      </c>
       <c r="I44" s="173"/>
       <c r="J44" s="173"/>
       <c r="K44" s="21"/>
@@ -43927,10 +44138,12 @@
       <c r="B45" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="33">
+        <v>1</v>
+      </c>
       <c r="D45" s="12">
         <f>C45*84</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="76"/>
@@ -43947,10 +44160,12 @@
       <c r="B46" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="81">
+        <v>3</v>
+      </c>
       <c r="D46" s="12">
         <f>C46*1.5</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="62"/>
@@ -43984,10 +44199,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>3</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
@@ -44022,7 +44239,7 @@
       </c>
       <c r="G49" s="161">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>198891</v>
       </c>
       <c r="H49" s="162"/>
       <c r="I49" s="162"/>
@@ -44046,10 +44263,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>3</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F50" s="215"/>
       <c r="G50" s="164"/>
@@ -44066,15 +44285,15 @@
       <c r="C51" s="10"/>
       <c r="D51" s="31"/>
       <c r="F51" s="216" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="228">
+        <v>143</v>
+      </c>
+      <c r="G51" s="218">
         <f>G49-H29</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+        <v>94.75</v>
+      </c>
+      <c r="H51" s="219"/>
+      <c r="I51" s="219"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -44096,10 +44315,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="221"/>
+      <c r="H52" s="222"/>
+      <c r="I52" s="222"/>
+      <c r="J52" s="223"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -44141,7 +44360,7 @@
       <c r="C54" s="203"/>
       <c r="D54" s="206">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>37326.75</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -47396,13 +47615,13 @@
       <c r="F51" s="216" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -47424,10 +47643,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -48170,9 +48389,9 @@
       <c r="G19" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
       <c r="L19" s="6">
         <f>R35</f>
         <v>1102</v>
@@ -49099,13 +49318,13 @@
       <c r="F51" s="216" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -49127,10 +49346,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -50791,13 +51010,13 @@
       <c r="F51" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="229">
         <f>G49-H29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -50819,10 +51038,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="217"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="232"/>
-      <c r="J52" s="233"/>
+      <c r="G52" s="232"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
